--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/20/seed4/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CD/20/seed4/result_data_RandomForest.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-6.327999999999988</v>
+        <v>-6.73279999999999</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.516599999999986</v>
+        <v>-7.585299999999992</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.253499999999995</v>
+        <v>-8.080499999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.82750000000001</v>
+        <v>-11.89620000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -624,7 +624,7 @@
         <v>-13.87</v>
       </c>
       <c r="D11" t="n">
-        <v>-8.345800000000001</v>
+        <v>-8.368100000000004</v>
       </c>
       <c r="E11" t="n">
         <v>13.91</v>
@@ -641,7 +641,7 @@
         <v>-15.79</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.301800000000004</v>
+        <v>-8.367000000000006</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -655,7 +655,7 @@
         <v>4.42</v>
       </c>
       <c r="C13" t="n">
-        <v>-12.63869999999999</v>
+        <v>-12.91409999999999</v>
       </c>
       <c r="D13" t="n">
         <v>-8.92</v>
@@ -706,7 +706,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-11.82569999999999</v>
+        <v>-11.6239</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -740,7 +740,7 @@
         <v>5.81</v>
       </c>
       <c r="C18" t="n">
-        <v>-14.31799999999999</v>
+        <v>-14.24049999999998</v>
       </c>
       <c r="D18" t="n">
         <v>-8.869999999999999</v>
@@ -774,7 +774,7 @@
         <v>5.51</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.56449999999998</v>
+        <v>-13.83369999999998</v>
       </c>
       <c r="D20" t="n">
         <v>-8.140000000000001</v>
@@ -794,7 +794,7 @@
         <v>-12.06</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.7304</v>
+        <v>-7.6842</v>
       </c>
       <c r="E21" t="n">
         <v>13.76</v>
